--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_NhatQuang.xlsx
@@ -9,30 +9,39 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="NQ899" sheetId="45" r:id="rId1"/>
-    <sheet name="TG102SE" sheetId="44" r:id="rId2"/>
-    <sheet name="TG102LE" sheetId="43" r:id="rId3"/>
-    <sheet name="TongThang" sheetId="25" r:id="rId4"/>
+    <sheet name="TG007X" sheetId="48" r:id="rId1"/>
+    <sheet name="Phụ Kiện" sheetId="47" r:id="rId2"/>
+    <sheet name="TG102LE-4G" sheetId="46" r:id="rId3"/>
+    <sheet name="NQ899" sheetId="45" r:id="rId4"/>
+    <sheet name="TG102SE" sheetId="44" r:id="rId5"/>
+    <sheet name="TG102LE" sheetId="43" r:id="rId6"/>
+    <sheet name="TongThang" sheetId="25" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'NQ899'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">'NQ899'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="2">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="3">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NQ899'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Phụ Kiện'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG007X!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">'NQ899'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">'Phụ Kiện'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG007X!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="5">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="4">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="6">TongThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="96">
   <si>
     <t>STT</t>
   </si>
@@ -260,6 +269,72 @@
   <si>
     <t>Thiết bị không nhận sim</t>
   </si>
+  <si>
+    <t>STM</t>
+  </si>
+  <si>
+    <t>112.078.011.007,16833</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi flash</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Thể</t>
+  </si>
+  <si>
+    <t>Dây nguồn LE</t>
+  </si>
+  <si>
+    <t>SL : 01</t>
+  </si>
+  <si>
+    <t>Còn BH</t>
+  </si>
+  <si>
+    <t>TG007X</t>
+  </si>
+  <si>
+    <t>LE.1.00.---05.190404</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180405</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi chân nguồn</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>LK, NCFW</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi nguồn</t>
+  </si>
+  <si>
+    <t>NG, NCFW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PM</t>
+  </si>
+  <si>
+    <t>LE.1.00.---04.181025</t>
+  </si>
+  <si>
+    <t>NQ.2.00.00001.180130</t>
+  </si>
 </sst>
 </file>
 
@@ -455,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -635,6 +710,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -988,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1021,43 +1108,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1102,99 +1189,99 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
-      <c r="B5" s="60" t="s">
+      <c r="A5" s="78"/>
+      <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="63" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
-      <c r="K5" s="60" t="s">
+      <c r="J5" s="73"/>
+      <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1202,14 +1289,14 @@
         <v>1</v>
       </c>
       <c r="B6" s="54">
-        <v>44743</v>
+        <v>44754</v>
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="37" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E6" s="38">
-        <v>866104028820747</v>
+        <v>867717030475132</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37" t="s">
@@ -1217,30 +1304,40 @@
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="55"/>
+        <v>68</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="55" t="s">
+        <v>86</v>
+      </c>
       <c r="L6" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="M6" s="39"/>
+        <v>69</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="61" t="s">
+      <c r="T6" s="64"/>
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="59"/>
+      <c r="W6" s="64"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -1250,7 +1347,7 @@
       <c r="C7" s="54"/>
       <c r="D7" s="37"/>
       <c r="E7" s="38"/>
-      <c r="F7" s="37"/>
+      <c r="F7" s="47"/>
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
       <c r="I7" s="51"/>
@@ -1264,12 +1361,12 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="62"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="59"/>
+      <c r="W7" s="64"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -1279,7 +1376,7 @@
       <c r="C8" s="54"/>
       <c r="D8" s="37"/>
       <c r="E8" s="38"/>
-      <c r="F8" s="37"/>
+      <c r="F8" s="47"/>
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
       <c r="I8" s="51"/>
@@ -1293,12 +1390,12 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="62"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="59"/>
+      <c r="W8" s="64"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1308,7 +1405,7 @@
       <c r="C9" s="54"/>
       <c r="D9" s="37"/>
       <c r="E9" s="38"/>
-      <c r="F9" s="37"/>
+      <c r="F9" s="47"/>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
       <c r="I9" s="51"/>
@@ -1322,12 +1419,12 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="62"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="59"/>
+      <c r="W9" s="64"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1351,12 +1448,12 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="62"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="59"/>
+      <c r="W10" s="64"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -1380,12 +1477,12 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="62"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="59"/>
+      <c r="W11" s="64"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -1409,14 +1506,14 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="61" t="s">
+      <c r="T12" s="64"/>
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="59"/>
+      <c r="W12" s="64"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1440,12 +1537,12 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="62"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="59"/>
+      <c r="W13" s="64"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1469,12 +1566,12 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="62"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="59"/>
+      <c r="W14" s="64"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1499,11 +1596,11 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="59"/>
+      <c r="W15" s="64"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1528,11 +1625,11 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="59"/>
+      <c r="W16" s="64"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -1556,9 +1653,9 @@
       <c r="R17" s="2"/>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="59"/>
+      <c r="U17" s="64"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="59"/>
+      <c r="W17" s="64"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -1610,7 +1707,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="60" t="s">
+      <c r="U19" s="63" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
@@ -1791,7 +1888,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="60" t="s">
+      <c r="U25" s="63" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
@@ -2115,7 +2212,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2179,7 +2276,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3273,7 +3370,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3305,43 +3402,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3386,99 +3483,99 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
-      <c r="B5" s="60" t="s">
+      <c r="A5" s="78"/>
+      <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="63" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
-      <c r="K5" s="60" t="s">
+      <c r="J5" s="73"/>
+      <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3486,28 +3583,24 @@
         <v>1</v>
       </c>
       <c r="B6" s="54">
-        <v>44743</v>
+        <v>44754</v>
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="38">
-        <v>862631034711449</v>
-      </c>
-      <c r="F6" s="47"/>
+        <v>80</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="37"/>
       <c r="G6" s="37" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="51" t="s">
-        <v>68</v>
-      </c>
+      <c r="I6" s="51"/>
       <c r="J6" s="1"/>
       <c r="K6" s="55"/>
-      <c r="L6" s="39" t="s">
-        <v>70</v>
-      </c>
+      <c r="L6" s="39"/>
       <c r="M6" s="39"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -3515,14 +3608,14 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="61" t="s">
+      <c r="T6" s="64"/>
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="59"/>
+      <c r="W6" s="64"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -3532,7 +3625,7 @@
       <c r="C7" s="54"/>
       <c r="D7" s="37"/>
       <c r="E7" s="38"/>
-      <c r="F7" s="37"/>
+      <c r="F7" s="47"/>
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
       <c r="I7" s="51"/>
@@ -3546,12 +3639,12 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="62"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="59"/>
+      <c r="W7" s="64"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -3561,7 +3654,7 @@
       <c r="C8" s="54"/>
       <c r="D8" s="37"/>
       <c r="E8" s="38"/>
-      <c r="F8" s="37"/>
+      <c r="F8" s="47"/>
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
       <c r="I8" s="51"/>
@@ -3575,12 +3668,12 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="62"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="59"/>
+      <c r="W8" s="64"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -3590,7 +3683,7 @@
       <c r="C9" s="54"/>
       <c r="D9" s="37"/>
       <c r="E9" s="38"/>
-      <c r="F9" s="37"/>
+      <c r="F9" s="47"/>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
       <c r="I9" s="51"/>
@@ -3604,12 +3697,12 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="62"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="59"/>
+      <c r="W9" s="64"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -3633,12 +3726,12 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="62"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="59"/>
+      <c r="W10" s="64"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -3662,12 +3755,12 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="62"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="59"/>
+      <c r="W11" s="64"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -3691,14 +3784,14 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="61" t="s">
+      <c r="T12" s="64"/>
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="59"/>
+      <c r="W12" s="64"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -3722,12 +3815,12 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="62"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="59"/>
+      <c r="W13" s="64"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -3751,12 +3844,12 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="62"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="59"/>
+      <c r="W14" s="64"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -3781,11 +3874,11 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="59"/>
+      <c r="W15" s="64"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -3810,11 +3903,11 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="59"/>
+      <c r="W16" s="64"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -3838,9 +3931,9 @@
       <c r="R17" s="2"/>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="59"/>
+      <c r="U17" s="64"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="59"/>
+      <c r="W17" s="64"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -3892,7 +3985,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="60" t="s">
+      <c r="U19" s="63" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
@@ -4073,7 +4166,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="60" t="s">
+      <c r="U25" s="63" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
@@ -5555,7 +5648,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="I16" sqref="A16:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5587,43 +5680,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5668,99 +5761,99 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
-      <c r="B5" s="57" t="s">
+      <c r="A5" s="78"/>
+      <c r="B5" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="61" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
-      <c r="K5" s="57" t="s">
+      <c r="J5" s="73"/>
+      <c r="K5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5768,27 +5861,29 @@
         <v>1</v>
       </c>
       <c r="B6" s="54">
-        <v>44743</v>
+        <v>44750</v>
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="37" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E6" s="38">
-        <v>868183037784258</v>
+        <v>862205051199125</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="37"/>
+      <c r="H6" s="37" t="s">
+        <v>74</v>
+      </c>
       <c r="I6" s="51" t="s">
         <v>68</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="55"/>
       <c r="L6" s="39" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="M6" s="39"/>
       <c r="N6" s="1"/>
@@ -5797,30 +5892,44 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="61" t="s">
+      <c r="T6" s="62"/>
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="56"/>
+      <c r="W6" s="62"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="54"/>
+      <c r="B7" s="54">
+        <v>44750</v>
+      </c>
       <c r="C7" s="54"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="D7" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="38">
+        <v>862205051233775</v>
+      </c>
       <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
+      <c r="G7" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>68</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="55"/>
-      <c r="L7" s="39"/>
+      <c r="L7" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="M7" s="39"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -5828,41 +5937,67 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="56"/>
+      <c r="W7" s="62"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="54"/>
+      <c r="B8" s="54">
+        <v>44750</v>
+      </c>
       <c r="C8" s="54"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
+      <c r="D8" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="38">
+        <v>862205051182873</v>
+      </c>
       <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="1"/>
+      <c r="G8" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="K8" s="55"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="L8" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S8" s="3"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="56"/>
+      <c r="W8" s="62"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -5886,12 +6021,12 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="56"/>
+      <c r="W9" s="62"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -5915,12 +6050,12 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="62"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="56"/>
+      <c r="W10" s="62"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -5944,12 +6079,12 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="62"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="56"/>
+      <c r="W11" s="62"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -5973,14 +6108,14 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="61" t="s">
+      <c r="T12" s="62"/>
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="56"/>
+      <c r="W12" s="62"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -6004,12 +6139,12 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="62"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="56"/>
+      <c r="W13" s="62"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -6033,12 +6168,12 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="56"/>
+      <c r="W14" s="62"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -6063,11 +6198,11 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="56"/>
+      <c r="W15" s="62"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -6092,11 +6227,11 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="56"/>
+      <c r="W16" s="62"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -6120,9 +6255,9 @@
       <c r="R17" s="2"/>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="56"/>
+      <c r="U17" s="62"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="56"/>
+      <c r="W17" s="62"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -6174,7 +6309,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="57" t="s">
+      <c r="U19" s="61" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
@@ -6242,7 +6377,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -6355,7 +6490,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="57" t="s">
+      <c r="U25" s="61" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
@@ -6551,7 +6686,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -6743,7 +6878,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -7833,6 +7968,6952 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X115"/>
+  <sheetViews>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="53" style="19" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="19" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="44"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="77"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="45"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="78"/>
+      <c r="B5" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="73"/>
+      <c r="K5" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="45"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="54">
+        <v>44743</v>
+      </c>
+      <c r="C6" s="54"/>
+      <c r="D6" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="38">
+        <v>866104028820747</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="37"/>
+      <c r="I6" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="55"/>
+      <c r="L6" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="39"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="59"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="54">
+        <v>44754</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="38">
+        <v>866104022163672</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="59"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="59"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="59"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="59"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="59"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="59"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="59"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="59"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="59"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="59"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="59"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="46"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="46"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>0</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="43"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>51</v>
+      </c>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="32"/>
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>52</v>
+      </c>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="32"/>
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+    <row r="58" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>53</v>
+      </c>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="32"/>
+    </row>
+    <row r="59" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>54</v>
+      </c>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="32"/>
+    </row>
+    <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>55</v>
+      </c>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="32"/>
+    </row>
+    <row r="61" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>56</v>
+      </c>
+      <c r="B61" s="54"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="32"/>
+    </row>
+    <row r="62" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>57</v>
+      </c>
+      <c r="B62" s="54"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="32"/>
+    </row>
+    <row r="63" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>58</v>
+      </c>
+      <c r="B63" s="54"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+    </row>
+    <row r="64" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>59</v>
+      </c>
+      <c r="B64" s="54"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="32"/>
+    </row>
+    <row r="65" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>60</v>
+      </c>
+      <c r="B65" s="54"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="32"/>
+    </row>
+    <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X115"/>
+  <sheetViews>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="53" style="19" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="19" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="44"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="77"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="45"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="78"/>
+      <c r="B5" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="73"/>
+      <c r="K5" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="45"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="54">
+        <v>44743</v>
+      </c>
+      <c r="C6" s="54"/>
+      <c r="D6" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="38">
+        <v>862631034711449</v>
+      </c>
+      <c r="F6" s="47"/>
+      <c r="G6" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="37"/>
+      <c r="I6" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="39"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="59"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="54">
+        <v>44754</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="38">
+        <v>862694037983309</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="59"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="59"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="59"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="59"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="59"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="59"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="59"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="59"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="59"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="59"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="59"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="46"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="46"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>0</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="43"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>51</v>
+      </c>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="32"/>
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>52</v>
+      </c>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="32"/>
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+    <row r="58" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>53</v>
+      </c>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="32"/>
+    </row>
+    <row r="59" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>54</v>
+      </c>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="32"/>
+    </row>
+    <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>55</v>
+      </c>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="32"/>
+    </row>
+    <row r="61" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>56</v>
+      </c>
+      <c r="B61" s="54"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="32"/>
+    </row>
+    <row r="62" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>57</v>
+      </c>
+      <c r="B62" s="54"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="32"/>
+    </row>
+    <row r="63" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>58</v>
+      </c>
+      <c r="B63" s="54"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+    </row>
+    <row r="64" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>59</v>
+      </c>
+      <c r="B64" s="54"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="32"/>
+    </row>
+    <row r="65" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>60</v>
+      </c>
+      <c r="B65" s="54"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="32"/>
+    </row>
+    <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X115"/>
+  <sheetViews>
+    <sheetView showZeros="0" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="53" style="19" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="19" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="44"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="77"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="45"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="78"/>
+      <c r="B5" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="73"/>
+      <c r="K5" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="45"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="54">
+        <v>44743</v>
+      </c>
+      <c r="C6" s="54"/>
+      <c r="D6" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="38">
+        <v>868183037784258</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="37"/>
+      <c r="I6" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="39"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="56"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="54">
+        <v>44754</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="38">
+        <v>868183035896013</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="56"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="54">
+        <v>44754</v>
+      </c>
+      <c r="C8" s="54"/>
+      <c r="D8" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="38">
+        <v>868183037809105</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="37"/>
+      <c r="I8" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="56"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="54">
+        <v>44754</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="38">
+        <v>868183034584537</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="37"/>
+      <c r="I9" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="S9" s="3"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="56"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="56"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="56"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="56"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="56"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="56"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="56"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="56"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="56"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="46"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>1</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>2</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="46"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>1</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>1</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>3</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>5</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="43"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>51</v>
+      </c>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="32"/>
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>52</v>
+      </c>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="32"/>
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+    <row r="58" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>53</v>
+      </c>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="32"/>
+    </row>
+    <row r="59" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>54</v>
+      </c>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="32"/>
+    </row>
+    <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>55</v>
+      </c>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="32"/>
+    </row>
+    <row r="61" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>56</v>
+      </c>
+      <c r="B61" s="54"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="32"/>
+    </row>
+    <row r="62" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>57</v>
+      </c>
+      <c r="B62" s="54"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="32"/>
+    </row>
+    <row r="63" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>58</v>
+      </c>
+      <c r="B63" s="54"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+    </row>
+    <row r="64" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>59</v>
+      </c>
+      <c r="B64" s="54"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="32"/>
+    </row>
+    <row r="65" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>60</v>
+      </c>
+      <c r="B65" s="54"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="32"/>
+    </row>
+    <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
@@ -7869,43 +14950,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -7950,58 +15031,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="69" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -8026,23 +15107,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8068,7 +15149,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8099,7 +15180,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8128,7 +15209,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8157,7 +15238,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8186,7 +15267,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8215,7 +15296,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8244,7 +15325,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8275,7 +15356,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8304,7 +15385,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8333,7 +15414,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8362,7 +15443,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_NhatQuang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TG007X" sheetId="48" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="99">
   <si>
     <t>STT</t>
   </si>
@@ -334,6 +334,15 @@
   </si>
   <si>
     <t>NQ.2.00.00001.180130</t>
+  </si>
+  <si>
+    <t>Thiết bị chốt sim chậm</t>
+  </si>
+  <si>
+    <t>Khách không sửa</t>
+  </si>
+  <si>
+    <t>KS</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1085,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1291,7 +1300,9 @@
       <c r="B6" s="54">
         <v>44754</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44755</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>83</v>
       </c>
@@ -3341,13 +3352,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3359,6 +3363,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3370,7 +3381,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3585,7 +3596,9 @@
       <c r="B6" s="54">
         <v>44754</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44755</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>80</v>
       </c>
@@ -5619,13 +5632,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5637,6 +5643,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5647,8 +5660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I16" sqref="A16:I16"/>
+    <sheetView showZeros="0" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5863,7 +5876,9 @@
       <c r="B6" s="54">
         <v>44750</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44755</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>56</v>
       </c>
@@ -5880,17 +5895,29 @@
       <c r="I6" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="K6" s="55"/>
       <c r="L6" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
       <c r="U6" s="65" t="s">
@@ -5908,7 +5935,9 @@
       <c r="B7" s="54">
         <v>44750</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="54">
+        <v>44755</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>56</v>
       </c>
@@ -5925,17 +5954,29 @@
       <c r="I7" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="K7" s="55"/>
       <c r="L7" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
       <c r="U7" s="66"/>
@@ -5951,7 +5992,9 @@
       <c r="B8" s="54">
         <v>44750</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="54">
+        <v>44755</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>56</v>
       </c>
@@ -6377,7 +6420,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -6686,7 +6729,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -6878,7 +6921,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -7943,6 +7986,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7954,13 +8004,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7971,8 +8014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showZeros="0" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8187,7 +8230,9 @@
       <c r="B6" s="54">
         <v>44743</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44755</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>67</v>
       </c>
@@ -8209,12 +8254,22 @@
       <c r="L6" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>97</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
       <c r="U6" s="65" t="s">
@@ -8232,7 +8287,9 @@
       <c r="B7" s="54">
         <v>44754</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="54">
+        <v>44755</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>67</v>
       </c>
@@ -8254,12 +8311,22 @@
       <c r="L7" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
       <c r="U7" s="66"/>
@@ -8643,7 +8710,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -8675,7 +8742,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -8856,7 +8923,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -9112,7 +9179,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -9176,7 +9243,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -9294,7 +9361,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -10241,13 +10308,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10259,6 +10319,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10270,7 +10337,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="M6" sqref="M6:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10485,7 +10552,9 @@
       <c r="B6" s="54">
         <v>44743</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44755</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>65</v>
       </c>
@@ -10505,12 +10574,22 @@
       <c r="L6" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
       <c r="U6" s="65" t="s">
@@ -10528,7 +10607,9 @@
       <c r="B7" s="54">
         <v>44754</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="54">
+        <v>44755</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>65</v>
       </c>
@@ -10540,16 +10621,30 @@
         <v>66</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
+      <c r="I7" s="51" t="s">
+        <v>75</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="55"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="L7" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
       <c r="U7" s="66"/>
@@ -10933,7 +11028,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -11402,7 +11497,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -11466,7 +11561,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -12531,13 +12626,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12549,6 +12637,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12559,8 +12654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12775,7 +12870,9 @@
       <c r="B6" s="54">
         <v>44743</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44755</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
@@ -12795,12 +12892,22 @@
       <c r="L6" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
       <c r="U6" s="65" t="s">
@@ -12818,7 +12925,9 @@
       <c r="B7" s="54">
         <v>44754</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="54">
+        <v>44755</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>44</v>
       </c>
@@ -12871,7 +12980,9 @@
       <c r="B8" s="54">
         <v>44754</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="54">
+        <v>44755</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>44</v>
       </c>
@@ -12926,7 +13037,9 @@
       <c r="B9" s="54">
         <v>44754</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="54">
+        <v>44755</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>44</v>
       </c>
@@ -13291,7 +13404,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -13760,7 +13873,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -13824,7 +13937,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -14889,6 +15002,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14900,13 +15020,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16674,13 +16787,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16692,6 +16798,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_NhatQuang.xlsx
@@ -9,39 +9,45 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="TG007X" sheetId="48" r:id="rId1"/>
-    <sheet name="Phụ Kiện" sheetId="47" r:id="rId2"/>
-    <sheet name="TG102LE-4G" sheetId="46" r:id="rId3"/>
-    <sheet name="NQ899" sheetId="45" r:id="rId4"/>
-    <sheet name="TG102SE" sheetId="44" r:id="rId5"/>
-    <sheet name="TG102LE" sheetId="43" r:id="rId6"/>
-    <sheet name="TongThang" sheetId="25" r:id="rId7"/>
+    <sheet name="TG007S" sheetId="50" r:id="rId1"/>
+    <sheet name="TG102" sheetId="49" r:id="rId2"/>
+    <sheet name="TG007X" sheetId="48" r:id="rId3"/>
+    <sheet name="Phụ Kiện" sheetId="47" r:id="rId4"/>
+    <sheet name="TG102LE-4G" sheetId="46" r:id="rId5"/>
+    <sheet name="NQ899" sheetId="45" r:id="rId6"/>
+    <sheet name="TG102SE" sheetId="44" r:id="rId7"/>
+    <sheet name="TG102LE" sheetId="43" r:id="rId8"/>
+    <sheet name="TongThang" sheetId="25" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NQ899'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Phụ Kiện'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG007X!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TG102LE-4G'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="3">'NQ899'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">'Phụ Kiện'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">TG007X!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="5">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="2">'TG102LE-4G'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="4">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="6">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'NQ899'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Phụ Kiện'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG007S!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG007X!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TG102'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="5">'NQ899'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">'Phụ Kiện'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG007S!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">TG007X!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">'TG102'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="7">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="4">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="6">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="8">TongThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="106">
   <si>
     <t>STT</t>
   </si>
@@ -344,6 +350,27 @@
   <si>
     <t>KS</t>
   </si>
+  <si>
+    <t>TG007S</t>
+  </si>
+  <si>
+    <t>TG102</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180710</t>
+  </si>
+  <si>
+    <t>LE.1.00.---06.191010</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi gps</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi connector</t>
+  </si>
+  <si>
+    <t>Thay connector, nâng cấp FW</t>
+  </si>
 </sst>
 </file>
 
@@ -539,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -733,28 +760,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -774,6 +783,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1085,7 +1118,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1117,43 +1150,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1198,99 +1231,99 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="63" t="s">
+      <c r="A5" s="72"/>
+      <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="65" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="63" t="s">
+      <c r="J5" s="67"/>
+      <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="63" t="s">
+      <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1298,68 +1331,58 @@
         <v>1</v>
       </c>
       <c r="B6" s="54">
-        <v>44754</v>
-      </c>
-      <c r="C6" s="54">
-        <v>44755</v>
-      </c>
+        <v>44770</v>
+      </c>
+      <c r="C6" s="54"/>
       <c r="D6" s="37" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="E6" s="38">
-        <v>867717030475132</v>
-      </c>
-      <c r="F6" s="37"/>
+        <v>865209034369844</v>
+      </c>
+      <c r="F6" s="47"/>
       <c r="G6" s="37" t="s">
         <v>66</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="51" t="s">
-        <v>68</v>
-      </c>
+      <c r="I6" s="51"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>38</v>
-      </c>
+      <c r="K6" s="55"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P6" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="2"/>
       <c r="S6" s="3"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="65" t="s">
+      <c r="T6" s="66"/>
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="64"/>
+      <c r="W6" s="66"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="54"/>
+      <c r="B7" s="54">
+        <v>44770</v>
+      </c>
       <c r="C7" s="54"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="D7" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="38">
+        <v>865209034444886</v>
+      </c>
       <c r="F7" s="47"/>
-      <c r="G7" s="37"/>
+      <c r="G7" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="H7" s="37"/>
       <c r="I7" s="51"/>
       <c r="J7" s="1"/>
@@ -1372,12 +1395,12 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="64"/>
+      <c r="W7" s="66"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -1401,12 +1424,12 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="64"/>
+      <c r="W8" s="66"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1430,12 +1453,12 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="64"/>
+      <c r="W9" s="66"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1459,12 +1482,12 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="64"/>
+      <c r="W10" s="66"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -1488,12 +1511,12 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="64"/>
+      <c r="W11" s="66"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -1517,14 +1540,14 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="65" t="s">
+      <c r="T12" s="66"/>
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="64"/>
+      <c r="W12" s="66"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1548,12 +1571,12 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="64"/>
+      <c r="W13" s="66"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1577,12 +1600,12 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="64"/>
+      <c r="W14" s="66"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1607,11 +1630,11 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="64"/>
+      <c r="W15" s="66"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1636,11 +1659,11 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="64"/>
+      <c r="W16" s="66"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -1664,9 +1687,9 @@
       <c r="R17" s="2"/>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="64"/>
+      <c r="U17" s="66"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="64"/>
+      <c r="W17" s="66"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -1718,7 +1741,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="63" t="s">
+      <c r="U19" s="65" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
@@ -1899,7 +1922,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="63" t="s">
+      <c r="U25" s="65" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
@@ -2223,7 +2246,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2287,7 +2310,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3352,6 +3375,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3363,6 +3393,2266 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X115"/>
+  <sheetViews>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="53" style="19" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="19" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="44"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="71"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="45"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="72"/>
+      <c r="B5" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="67"/>
+      <c r="K5" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="45"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="54">
+        <v>44770</v>
+      </c>
+      <c r="C6" s="54"/>
+      <c r="D6" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="38">
+        <v>866762029425921</v>
+      </c>
+      <c r="F6" s="47"/>
+      <c r="G6" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="37"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="66"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="76"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="66"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="66"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="66"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="66"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="76"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="66"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="66"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="76"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="66"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="66"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="76"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="66"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="66"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="66"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="46"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="46"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>0</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="43"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>51</v>
+      </c>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="32"/>
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>52</v>
+      </c>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="32"/>
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+    <row r="58" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>53</v>
+      </c>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="32"/>
+    </row>
+    <row r="59" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>54</v>
+      </c>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="32"/>
+    </row>
+    <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>55</v>
+      </c>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="32"/>
+    </row>
+    <row r="61" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>56</v>
+      </c>
+      <c r="B61" s="54"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="32"/>
+    </row>
+    <row r="62" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>57</v>
+      </c>
+      <c r="B62" s="54"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="32"/>
+    </row>
+    <row r="63" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>58</v>
+      </c>
+      <c r="B63" s="54"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+    </row>
+    <row r="64" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>59</v>
+      </c>
+      <c r="B64" s="54"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="32"/>
+    </row>
+    <row r="65" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>60</v>
+      </c>
+      <c r="B65" s="54"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="32"/>
+    </row>
+    <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
     <mergeCell ref="U6:U11"/>
     <mergeCell ref="U12:U16"/>
     <mergeCell ref="P4:P5"/>
@@ -3370,13 +5660,2336 @@
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X115"/>
+  <sheetViews>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="53" style="19" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="19" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="44"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="71"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="45"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="72"/>
+      <c r="B5" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="67"/>
+      <c r="K5" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="45"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="54">
+        <v>44754</v>
+      </c>
+      <c r="C6" s="54">
+        <v>44755</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="38">
+        <v>867717030475132</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="37"/>
+      <c r="I6" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="64"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="54">
+        <v>44770</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="38">
+        <v>867717030421771</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="76"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="64"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="64"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="64"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="64"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="76"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="64"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="64"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="76"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="64"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="64"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="76"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="64"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="64"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="64"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="46"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="46"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>1</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>1</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="43"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>51</v>
+      </c>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="32"/>
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>52</v>
+      </c>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="32"/>
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+    <row r="58" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>53</v>
+      </c>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="32"/>
+    </row>
+    <row r="59" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>54</v>
+      </c>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="32"/>
+    </row>
+    <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>55</v>
+      </c>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="32"/>
+    </row>
+    <row r="61" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>56</v>
+      </c>
+      <c r="B61" s="54"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="32"/>
+    </row>
+    <row r="62" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>57</v>
+      </c>
+      <c r="B62" s="54"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="32"/>
+    </row>
+    <row r="63" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>58</v>
+      </c>
+      <c r="B63" s="54"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+    </row>
+    <row r="64" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>59</v>
+      </c>
+      <c r="B64" s="54"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="32"/>
+    </row>
+    <row r="65" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>60</v>
+      </c>
+      <c r="B65" s="54"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="32"/>
+    </row>
+    <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
@@ -3413,43 +8026,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3494,58 +8107,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -3570,23 +8183,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3622,7 +8235,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3653,7 +8266,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3682,7 +8295,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3711,7 +8324,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3740,7 +8353,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3769,7 +8382,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3798,7 +8411,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3829,7 +8442,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3858,7 +8471,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3887,7 +8500,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3916,7 +8529,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5632,6 +10245,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5643,20 +10263,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
@@ -5693,43 +10306,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5774,58 +10387,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="61" t="s">
         <v>1</v>
       </c>
@@ -5850,23 +10463,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="61" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5920,7 +10533,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5979,7 +10592,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6036,7 +10649,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6065,7 +10678,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6094,7 +10707,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6123,7 +10736,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6152,7 +10765,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6183,7 +10796,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6212,7 +10825,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6241,7 +10854,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6270,7 +10883,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7986,13 +12599,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8004,18 +12610,25 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M7"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8047,43 +12660,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8128,58 +12741,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -8204,23 +12817,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8272,7 +12885,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8329,7 +12942,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8339,12 +12952,20 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="54"/>
+      <c r="B8" s="54">
+        <v>44770</v>
+      </c>
       <c r="C8" s="54"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
+      <c r="D8" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="38">
+        <v>866104028831819</v>
+      </c>
       <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
+      <c r="G8" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="H8" s="37"/>
       <c r="I8" s="51"/>
       <c r="J8" s="1"/>
@@ -8358,7 +12979,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8368,12 +12989,20 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="54"/>
+      <c r="B9" s="54">
+        <v>44770</v>
+      </c>
       <c r="C9" s="54"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
+      <c r="D9" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="38">
+        <v>866104022169471</v>
+      </c>
       <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
+      <c r="G9" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="H9" s="37"/>
       <c r="I9" s="51"/>
       <c r="J9" s="1"/>
@@ -8387,7 +13016,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8397,12 +13026,20 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="54"/>
+      <c r="B10" s="54">
+        <v>44770</v>
+      </c>
       <c r="C10" s="54"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
+      <c r="D10" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="38">
+        <v>863586032909594</v>
+      </c>
       <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
+      <c r="G10" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="H10" s="37"/>
       <c r="I10" s="51"/>
       <c r="J10" s="1"/>
@@ -8416,7 +13053,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8426,12 +13063,20 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="54"/>
+      <c r="B11" s="54">
+        <v>44770</v>
+      </c>
       <c r="C11" s="54"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
+      <c r="D11" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="38">
+        <v>866104022163680</v>
+      </c>
       <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
+      <c r="G11" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="H11" s="58"/>
       <c r="I11" s="51"/>
       <c r="J11" s="1"/>
@@ -8445,7 +13090,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8474,7 +13119,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8505,7 +13150,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8534,7 +13179,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8563,7 +13208,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8592,7 +13237,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10308,6 +14953,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10319,25 +14971,18 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10369,43 +15014,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10450,58 +15095,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -10526,23 +15171,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10592,7 +15237,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10647,7 +15292,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10657,17 +15302,29 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="54"/>
+      <c r="B8" s="54">
+        <v>44770</v>
+      </c>
       <c r="C8" s="54"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
+      <c r="D8" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="38">
+        <v>864811037279937</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="H8" s="37"/>
-      <c r="I8" s="51"/>
+      <c r="I8" s="51" t="s">
+        <v>75</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="55"/>
-      <c r="L8" s="39"/>
+      <c r="L8" s="39" t="s">
+        <v>70</v>
+      </c>
       <c r="M8" s="39"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -10676,7 +15333,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10705,7 +15362,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10734,7 +15391,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10763,7 +15420,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10792,7 +15449,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10823,7 +15480,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10852,7 +15509,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10881,7 +15538,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10910,7 +15567,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12626,6 +17283,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12637,25 +17301,18 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:R6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12687,43 +17344,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12768,58 +17425,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -12844,23 +17501,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12910,7 +17567,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12967,7 +17624,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13024,7 +17681,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13081,7 +17738,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13091,17 +17748,31 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="54"/>
+      <c r="B10" s="54">
+        <v>44770</v>
+      </c>
       <c r="C10" s="54"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
+      <c r="D10" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="38">
+        <v>868183034607767</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="H10" s="37"/>
-      <c r="I10" s="51"/>
+      <c r="I10" s="51" t="s">
+        <v>68</v>
+      </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
+      <c r="K10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="M10" s="39"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -13110,7 +17781,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13120,26 +17791,52 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="54"/>
+      <c r="B11" s="54">
+        <v>44770</v>
+      </c>
       <c r="C11" s="54"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
+      <c r="D11" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="38">
+        <v>868183033827796</v>
+      </c>
+      <c r="F11" s="47"/>
+      <c r="G11" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="H11" s="58"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="I11" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>105</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
+      <c r="O11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13149,17 +17846,31 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="54">
+        <v>44770</v>
+      </c>
       <c r="C12" s="54"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+      <c r="D12" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="38">
+        <v>868183034723390</v>
+      </c>
+      <c r="F12" s="47"/>
+      <c r="G12" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="H12" s="58"/>
-      <c r="I12" s="51"/>
+      <c r="I12" s="51" t="s">
+        <v>68</v>
+      </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="39"/>
+      <c r="K12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="M12" s="39"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -13168,7 +17879,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13180,12 +17891,20 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="54"/>
+      <c r="B13" s="54">
+        <v>44770</v>
+      </c>
       <c r="C13" s="54"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
+      <c r="D13" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="38">
+        <v>860157040236496</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="G13" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="H13" s="47"/>
       <c r="I13" s="51"/>
       <c r="J13" s="1"/>
@@ -13199,7 +17918,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13209,12 +17928,20 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="54"/>
+      <c r="B14" s="54">
+        <v>44770</v>
+      </c>
       <c r="C14" s="54"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
+      <c r="D14" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="38">
+        <v>868183034653274</v>
+      </c>
       <c r="F14" s="47"/>
-      <c r="G14" s="37"/>
+      <c r="G14" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="H14" s="47"/>
       <c r="I14" s="51"/>
       <c r="J14" s="1"/>
@@ -13228,7 +17955,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13238,12 +17965,20 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="54"/>
+      <c r="B15" s="54">
+        <v>44770</v>
+      </c>
       <c r="C15" s="54"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
+      <c r="D15" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="38">
+        <v>868183034655337</v>
+      </c>
       <c r="F15" s="47"/>
-      <c r="G15" s="37"/>
+      <c r="G15" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="H15" s="47"/>
       <c r="I15" s="51"/>
       <c r="J15" s="1"/>
@@ -13257,7 +17992,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13286,7 +18021,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13468,7 +18203,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -13745,7 +18480,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -13873,7 +18608,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -13937,7 +18672,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -15002,13 +19737,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15020,13 +19748,20 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
@@ -15063,43 +19798,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -15144,58 +19879,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -15220,23 +19955,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15262,7 +19997,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15293,7 +20028,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15322,7 +20057,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15351,7 +20086,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15380,7 +20115,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15409,7 +20144,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15438,7 +20173,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15469,7 +20204,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15498,7 +20233,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15527,7 +20262,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15556,7 +20291,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16787,6 +21522,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16798,13 +21540,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_NhatQuang.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="107">
   <si>
     <t>STT</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>Thay connector, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>LE.2.00.---25.200222</t>
   </si>
 </sst>
 </file>
@@ -766,6 +769,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -783,30 +810,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1150,43 +1153,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1231,58 +1234,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1307,23 +1310,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1357,7 +1360,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1396,7 +1399,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1425,7 +1428,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1454,7 +1457,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1483,7 +1486,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1512,7 +1515,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1541,7 +1544,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1572,7 +1575,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1601,7 +1604,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1630,7 +1633,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1659,7 +1662,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3375,13 +3378,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3393,6 +3389,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3436,43 +3439,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3517,58 +3520,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -3593,23 +3596,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3643,7 +3646,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3674,7 +3677,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3703,7 +3706,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3732,7 +3735,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3761,7 +3764,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3790,7 +3793,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3819,7 +3822,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3850,7 +3853,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3879,7 +3882,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3908,7 +3911,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3937,7 +3940,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5653,13 +5656,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5671,6 +5667,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5714,43 +5717,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5795,58 +5798,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -5871,23 +5874,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5939,7 +5942,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5986,7 +5989,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6015,7 +6018,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6044,7 +6047,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6073,7 +6076,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6102,7 +6105,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6131,7 +6134,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6162,7 +6165,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6191,7 +6194,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6220,7 +6223,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6249,7 +6252,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7965,13 +7968,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7983,6 +7979,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8026,43 +8029,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8107,58 +8110,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -8183,23 +8186,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8235,7 +8238,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8266,7 +8269,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8295,7 +8298,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8324,7 +8327,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8353,7 +8356,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8382,7 +8385,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8411,7 +8414,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8442,7 +8445,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8471,7 +8474,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8500,7 +8503,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8529,7 +8532,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10245,13 +10248,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10263,6 +10259,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10306,43 +10309,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10387,58 +10390,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="61" t="s">
         <v>1</v>
       </c>
@@ -10463,23 +10466,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="61" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10533,7 +10536,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10592,7 +10595,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10649,7 +10652,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10678,7 +10681,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10707,7 +10710,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10736,7 +10739,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10765,7 +10768,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10796,7 +10799,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10825,7 +10828,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10854,7 +10857,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10883,7 +10886,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12599,6 +12602,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12610,13 +12620,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12660,43 +12663,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12741,58 +12744,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -12817,23 +12820,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12885,7 +12888,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12942,7 +12945,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12979,7 +12982,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13016,7 +13019,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13053,7 +13056,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13090,7 +13093,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13119,7 +13122,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13150,7 +13153,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13179,7 +13182,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13208,7 +13211,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13237,7 +13240,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14953,13 +14956,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14971,6 +14967,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15014,43 +15017,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -15095,58 +15098,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -15171,23 +15174,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15237,7 +15240,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15292,7 +15295,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15333,7 +15336,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15362,7 +15365,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15391,7 +15394,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15420,7 +15423,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15449,7 +15452,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15480,7 +15483,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15509,7 +15512,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15538,7 +15541,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15567,7 +15570,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17283,13 +17286,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17301,6 +17297,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17312,7 +17315,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="M12" sqref="M12:R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17344,43 +17347,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17425,58 +17428,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -17501,23 +17504,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17567,7 +17570,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17624,7 +17627,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17681,7 +17684,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17738,7 +17741,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17781,7 +17784,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17836,7 +17839,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17871,15 +17874,25 @@
       <c r="L12" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="M12" s="39"/>
+      <c r="M12" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
+      <c r="O12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17906,19 +17919,35 @@
         <v>66</v>
       </c>
       <c r="H13" s="47"/>
-      <c r="I13" s="51"/>
+      <c r="I13" s="51" t="s">
+        <v>75</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="K13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
+      <c r="O13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17955,7 +17984,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17992,7 +18021,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -18021,7 +18050,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -18139,7 +18168,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -18608,7 +18637,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -18672,7 +18701,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -19737,6 +19766,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19748,13 +19784,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19798,43 +19827,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19879,58 +19908,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19955,23 +19984,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="67"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="75"/>
       <c r="P5" s="81"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="80"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19997,7 +20026,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -20028,7 +20057,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -20057,7 +20086,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -20086,7 +20115,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -20115,7 +20144,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -20144,7 +20173,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -20173,7 +20202,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -20204,7 +20233,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -20233,7 +20262,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -20262,7 +20291,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -20291,7 +20320,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21522,13 +21551,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21540,6 +21562,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_NhatQuang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="7"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG007S" sheetId="50" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="110">
   <si>
     <t>STT</t>
   </si>
@@ -373,6 +373,15 @@
   </si>
   <si>
     <t>LE.2.00.---25.200222</t>
+  </si>
+  <si>
+    <t>ĐM</t>
+  </si>
+  <si>
+    <t>Đổi mới</t>
+  </si>
+  <si>
+    <t>Dây nguồn lỗi cos</t>
   </si>
 </sst>
 </file>
@@ -769,30 +778,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -810,6 +795,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1153,43 +1162,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1234,58 +1243,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1310,23 +1319,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1360,7 +1369,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1399,7 +1408,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1428,7 +1437,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1457,7 +1466,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1486,7 +1495,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1515,7 +1524,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1544,7 +1553,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1575,7 +1584,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1604,7 +1613,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1633,7 +1642,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1662,7 +1671,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3378,6 +3387,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3389,13 +3405,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3439,43 +3448,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3520,58 +3529,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -3596,23 +3605,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3646,7 +3655,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3677,7 +3686,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3706,7 +3715,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3735,7 +3744,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3764,7 +3773,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3793,7 +3802,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3822,7 +3831,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3853,7 +3862,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3882,7 +3891,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3911,7 +3920,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3940,7 +3949,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5656,6 +5665,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5667,13 +5683,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5717,43 +5726,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5798,58 +5807,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -5874,23 +5883,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5942,7 +5951,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5989,7 +5998,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6018,7 +6027,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6047,7 +6056,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6076,7 +6085,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6105,7 +6114,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6134,7 +6143,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6165,7 +6174,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6194,7 +6203,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6223,7 +6232,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6252,7 +6261,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7968,6 +7977,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7979,13 +7995,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7996,8 +8005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8029,43 +8038,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8110,58 +8119,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -8186,23 +8195,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8227,18 +8236,30 @@
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="51"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="K6" s="55"/>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>108</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8269,7 +8290,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8298,7 +8319,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8327,7 +8348,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8356,7 +8377,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8385,7 +8406,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8414,7 +8435,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8445,7 +8466,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8474,7 +8495,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8503,7 +8524,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8532,7 +8553,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8682,7 +8703,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -8991,7 +9012,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -9183,7 +9204,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -10248,6 +10269,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10259,13 +10287,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10276,8 +10297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10309,43 +10330,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10390,58 +10411,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="61" t="s">
         <v>1</v>
       </c>
@@ -10466,23 +10487,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="61" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10536,7 +10557,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10595,7 +10616,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10652,7 +10673,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10681,7 +10702,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10710,7 +10731,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10739,7 +10760,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10768,7 +10789,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10799,7 +10820,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10828,7 +10849,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10857,7 +10878,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10886,7 +10907,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12602,13 +12623,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12620,6 +12634,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12630,8 +12651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B11"/>
+    <sheetView showZeros="0" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12663,43 +12684,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12744,58 +12765,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -12820,23 +12841,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12888,7 +12909,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12945,7 +12966,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12982,7 +13003,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13019,7 +13040,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13056,7 +13077,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13093,7 +13114,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13122,7 +13143,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13153,7 +13174,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13182,7 +13203,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13211,7 +13232,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13240,7 +13261,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14956,6 +14977,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14967,13 +14995,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14984,8 +15005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15017,43 +15038,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -15098,58 +15119,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -15174,23 +15195,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15240,7 +15261,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15295,7 +15316,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15336,7 +15357,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15365,7 +15386,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15394,7 +15415,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15423,7 +15444,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15452,7 +15473,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15483,7 +15504,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15512,7 +15533,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15541,7 +15562,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15570,7 +15591,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17286,6 +17307,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17297,13 +17325,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17314,8 +17335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12:R12"/>
+    <sheetView showZeros="0" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17347,43 +17368,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17428,58 +17449,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -17504,23 +17525,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17570,7 +17591,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17627,7 +17648,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17684,7 +17705,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17741,7 +17762,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17784,7 +17805,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17839,7 +17860,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17892,7 +17913,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17947,7 +17968,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17984,7 +18005,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -18021,7 +18042,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -18050,7 +18071,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19766,13 +19787,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19784,6 +19798,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19827,43 +19848,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19908,58 +19929,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19984,23 +20005,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="75"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="67"/>
       <c r="P5" s="81"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="74"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -20026,7 +20047,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -20057,7 +20078,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -20086,7 +20107,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -20115,7 +20136,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -20144,7 +20165,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -20173,7 +20194,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -20202,7 +20223,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -20233,7 +20254,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -20262,7 +20283,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -20291,7 +20312,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -20320,7 +20341,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21551,6 +21572,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21562,13 +21590,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_NhatQuang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TG007S" sheetId="50" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="112">
   <si>
     <t>STT</t>
   </si>
@@ -382,6 +382,12 @@
   </si>
   <si>
     <t>Dây nguồn lỗi cos</t>
+  </si>
+  <si>
+    <t>NQ.1.00.00002.270416</t>
+  </si>
+  <si>
+    <t>NQ.1.00.00006.270416</t>
   </si>
 </sst>
 </file>
@@ -8005,7 +8011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -12651,8 +12657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:R11"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12991,9 +12997,13 @@
         <v>66</v>
       </c>
       <c r="H8" s="37"/>
-      <c r="I8" s="51"/>
+      <c r="I8" s="51" t="s">
+        <v>68</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="55"/>
+      <c r="K8" s="55" t="s">
+        <v>71</v>
+      </c>
       <c r="L8" s="39"/>
       <c r="M8" s="39"/>
       <c r="N8" s="1"/>
@@ -13065,16 +13075,32 @@
         <v>66</v>
       </c>
       <c r="H10" s="37"/>
-      <c r="I10" s="51"/>
+      <c r="I10" s="51" t="s">
+        <v>68</v>
+      </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="K10" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
+      <c r="O10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
       <c r="U10" s="76"/>
@@ -13102,16 +13128,32 @@
         <v>66</v>
       </c>
       <c r="H11" s="58"/>
-      <c r="I11" s="51"/>
+      <c r="I11" s="51" t="s">
+        <v>68</v>
+      </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="K11" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
+      <c r="O11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
       <c r="U11" s="76"/>
@@ -13379,7 +13421,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -13848,7 +13890,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -13912,7 +13954,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -17335,8 +17377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:R15"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17993,16 +18035,32 @@
         <v>66</v>
       </c>
       <c r="H14" s="47"/>
-      <c r="I14" s="51"/>
+      <c r="I14" s="51" t="s">
+        <v>72</v>
+      </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
+      <c r="K14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L14" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="2"/>
+      <c r="O14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S14" s="3"/>
       <c r="T14" s="56"/>
       <c r="U14" s="76"/>
@@ -18030,16 +18088,32 @@
         <v>66</v>
       </c>
       <c r="H15" s="47"/>
-      <c r="I15" s="51"/>
+      <c r="I15" s="51" t="s">
+        <v>72</v>
+      </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
+      <c r="K15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="2"/>
+      <c r="O15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P15" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
       <c r="U15" s="76"/>
@@ -18189,7 +18263,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -18658,7 +18732,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -18722,7 +18796,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W37" s="13"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_NhatQuang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG007S" sheetId="50" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="116">
   <si>
     <t>STT</t>
   </si>
@@ -388,6 +388,18 @@
   </si>
   <si>
     <t>NQ.1.00.00006.270416</t>
+  </si>
+  <si>
+    <t>Thiết bị treo</t>
+  </si>
+  <si>
+    <t>Restore thiết bị</t>
+  </si>
+  <si>
+    <t>TG.007S.---01.180405</t>
+  </si>
+  <si>
+    <t>TG.007S.---01.170612</t>
   </si>
 </sst>
 </file>
@@ -1135,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1363,9 +1375,13 @@
         <v>66</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="51"/>
+      <c r="I6" s="51" t="s">
+        <v>68</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="55"/>
+      <c r="K6" s="55" t="s">
+        <v>114</v>
+      </c>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
       <c r="N6" s="1"/>
@@ -1402,10 +1418,16 @@
         <v>66</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
+      <c r="I7" s="51" t="s">
+        <v>75</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="39"/>
+      <c r="K7" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="L7" s="55" t="s">
+        <v>114</v>
+      </c>
       <c r="M7" s="39"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -12657,8 +12679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15047,8 +15069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:R8"/>
+    <sheetView showZeros="0" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15391,12 +15413,22 @@
       <c r="L8" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
       <c r="U8" s="76"/>
@@ -15409,23 +15441,47 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="54"/>
+      <c r="B9" s="54">
+        <v>44770</v>
+      </c>
       <c r="C9" s="54"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
+      <c r="D9" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="38">
+        <v>862631034743046</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="H9" s="37"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="1"/>
+      <c r="I9" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="L9" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>113</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
+      <c r="O9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
       <c r="U9" s="76"/>
@@ -15751,7 +15807,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -16188,7 +16244,7 @@
       </c>
       <c r="V34" s="9">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="13"/>
     </row>
@@ -16220,7 +16276,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -16284,7 +16340,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -17378,7 +17434,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="M17" sqref="M17:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17839,12 +17895,22 @@
       <c r="L10" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="39"/>
+      <c r="M10" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
+      <c r="O10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="56"/>
       <c r="U10" s="76"/>
@@ -18126,23 +18192,47 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="54"/>
+      <c r="B16" s="54">
+        <v>44770</v>
+      </c>
       <c r="C16" s="54"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
+      <c r="D16" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="38">
+        <v>867857039941112</v>
+      </c>
       <c r="F16" s="47"/>
-      <c r="G16" s="37"/>
+      <c r="G16" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="H16" s="37"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="1"/>
+      <c r="I16" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="K16" s="1"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
+      <c r="L16" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>113</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="2"/>
+      <c r="O16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
       <c r="U16" s="77"/>
@@ -18155,22 +18245,47 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="54"/>
+      <c r="B17" s="54">
+        <v>44770</v>
+      </c>
       <c r="C17" s="54"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
+      <c r="D17" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="38">
+        <v>868183037824559</v>
+      </c>
       <c r="F17" s="47"/>
-      <c r="G17" s="37"/>
+      <c r="G17" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="51"/>
+      <c r="I17" s="51" t="s">
+        <v>68</v>
+      </c>
       <c r="J17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
+      <c r="K17" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="2"/>
+      <c r="O17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
       <c r="U17" s="56"/>
@@ -18263,7 +18378,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -18700,7 +18815,7 @@
       </c>
       <c r="V34" s="9">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="13"/>
     </row>
@@ -18732,7 +18847,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -18796,7 +18911,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="W37" s="13"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_NhatQuang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TG007S" sheetId="50" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="118">
   <si>
     <t>STT</t>
   </si>
@@ -400,6 +400,12 @@
   </si>
   <si>
     <t>TG.007S.---01.170612</t>
+  </si>
+  <si>
+    <t>X.4.0.0.00002.180125</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
   </si>
 </sst>
 </file>
@@ -796,6 +802,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -813,30 +843,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1147,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView showZeros="0" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1180,43 +1186,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1261,58 +1267,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1337,23 +1343,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1383,15 +1389,25 @@
         <v>114</v>
       </c>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1428,15 +1444,25 @@
       <c r="L7" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1465,7 +1491,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1494,7 +1520,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1523,7 +1549,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1552,7 +1578,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1581,7 +1607,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1612,7 +1638,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1641,7 +1667,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1670,7 +1696,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1699,7 +1725,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1817,7 +1843,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2286,7 +2312,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2350,7 +2376,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3415,13 +3441,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3433,6 +3452,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3444,7 +3470,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3476,43 +3502,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3557,58 +3583,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -3633,23 +3659,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3671,9 +3697,13 @@
         <v>66</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="51"/>
+      <c r="I6" s="51" t="s">
+        <v>72</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="55"/>
+      <c r="K6" s="55" t="s">
+        <v>116</v>
+      </c>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
       <c r="N6" s="1"/>
@@ -3683,7 +3713,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3714,7 +3744,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3743,7 +3773,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3772,7 +3802,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3801,7 +3831,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3830,7 +3860,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3859,7 +3889,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3890,7 +3920,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3919,7 +3949,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3948,7 +3978,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3977,7 +4007,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5693,13 +5723,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5711,6 +5734,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5722,7 +5752,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5754,43 +5784,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5835,58 +5865,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -5911,23 +5941,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5979,7 +6009,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6026,7 +6056,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6055,7 +6085,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6084,7 +6114,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6113,7 +6143,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6142,7 +6172,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6171,7 +6201,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6202,7 +6232,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6231,7 +6261,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6260,7 +6290,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6289,7 +6319,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8005,13 +8035,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8023,6 +8046,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8033,8 +8063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I16" sqref="A12:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8066,43 +8096,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8147,58 +8177,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -8223,23 +8253,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8287,7 +8317,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8318,7 +8348,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8347,7 +8377,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8376,7 +8406,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8405,7 +8435,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8434,7 +8464,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8463,7 +8493,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8494,7 +8524,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8523,7 +8553,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8552,7 +8582,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8581,7 +8611,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10297,13 +10327,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10315,6 +10338,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10325,8 +10355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:R8"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K25" sqref="A21:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10358,43 +10388,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10439,58 +10469,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="61" t="s">
         <v>1</v>
       </c>
@@ -10515,23 +10545,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="61" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10585,7 +10615,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10644,7 +10674,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10701,7 +10731,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10730,7 +10760,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10759,7 +10789,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10788,7 +10818,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10817,7 +10847,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10848,7 +10878,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10877,7 +10907,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10906,7 +10936,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10935,7 +10965,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12651,6 +12681,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12662,13 +12699,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12679,8 +12709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12712,43 +12742,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12793,58 +12823,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -12869,23 +12899,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12937,7 +12967,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12994,7 +13024,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13027,15 +13057,25 @@
         <v>71</v>
       </c>
       <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>117</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13060,19 +13100,33 @@
         <v>66</v>
       </c>
       <c r="H9" s="37"/>
-      <c r="I9" s="51"/>
+      <c r="I9" s="51" t="s">
+        <v>68</v>
+      </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="55" t="s">
+        <v>71</v>
+      </c>
       <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="M9" s="39" t="s">
+        <v>117</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
+      <c r="O9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13125,7 +13179,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13178,7 +13232,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13207,7 +13261,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13238,7 +13292,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13267,7 +13321,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13296,7 +13350,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13325,7 +13379,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13443,7 +13497,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -13944,7 +13998,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -13976,7 +14030,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -15041,13 +15095,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15059,6 +15106,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15102,43 +15156,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -15183,58 +15237,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -15259,23 +15313,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15325,7 +15379,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15380,7 +15434,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15431,7 +15485,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15484,7 +15538,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15513,7 +15567,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15542,7 +15596,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15571,7 +15625,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15602,7 +15656,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15631,7 +15685,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15660,7 +15714,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15689,7 +15743,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17405,13 +17459,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17423,6 +17470,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17466,43 +17520,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17547,58 +17601,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -17623,23 +17677,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17689,7 +17743,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17746,7 +17800,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17803,7 +17857,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17860,7 +17914,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17913,7 +17967,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17968,7 +18022,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -18021,7 +18075,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -18076,7 +18130,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -18129,7 +18183,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -18182,7 +18236,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -18235,7 +18289,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19976,6 +20030,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19987,13 +20048,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20037,43 +20091,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -20118,58 +20172,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -20194,23 +20248,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="67"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="75"/>
       <c r="P5" s="81"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="80"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -20236,7 +20290,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -20267,7 +20321,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -20296,7 +20350,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -20325,7 +20379,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -20354,7 +20408,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -20383,7 +20437,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -20412,7 +20466,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -20443,7 +20497,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -20472,7 +20526,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -20501,7 +20555,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -20530,7 +20584,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21761,13 +21815,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21779,6 +21826,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_NhatQuang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG007S" sheetId="50" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="119">
   <si>
     <t>STT</t>
   </si>
@@ -406,6 +406,9 @@
   </si>
   <si>
     <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>203.162.69.75,20175</t>
   </si>
 </sst>
 </file>
@@ -802,30 +805,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -843,6 +822,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1153,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:L11"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M7" sqref="M6:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1186,43 +1189,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1267,58 +1270,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1343,23 +1346,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1369,7 +1372,9 @@
       <c r="B6" s="54">
         <v>44770</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44776</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>99</v>
       </c>
@@ -1407,7 +1412,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1422,7 +1427,9 @@
       <c r="B7" s="54">
         <v>44770</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="54">
+        <v>44776</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>99</v>
       </c>
@@ -1462,7 +1469,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1491,7 +1498,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1520,7 +1527,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1549,7 +1556,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1578,7 +1585,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1607,7 +1614,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1638,7 +1645,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1667,7 +1674,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1696,7 +1703,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1725,7 +1732,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3441,6 +3448,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3452,13 +3466,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3469,8 +3476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showZeros="0" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3502,43 +3509,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3583,58 +3590,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -3659,23 +3666,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3685,7 +3692,9 @@
       <c r="B6" s="54">
         <v>44770</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44776</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>100</v>
       </c>
@@ -3705,15 +3714,25 @@
         <v>116</v>
       </c>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3744,7 +3763,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3773,7 +3792,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3802,7 +3821,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3831,7 +3850,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3860,7 +3879,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3889,7 +3908,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3920,7 +3939,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3949,7 +3968,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3978,7 +3997,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4007,7 +4026,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4125,7 +4144,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -4594,7 +4613,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -4658,7 +4677,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -5723,6 +5742,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5734,13 +5760,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5751,8 +5770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5784,43 +5803,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5865,58 +5884,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -5941,23 +5960,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6009,7 +6028,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6024,7 +6043,9 @@
       <c r="B7" s="54">
         <v>44770</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="54">
+        <v>44776</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>83</v>
       </c>
@@ -6048,15 +6069,25 @@
       <c r="L7" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>97</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6085,7 +6116,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6114,7 +6145,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6143,7 +6174,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6172,7 +6203,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6201,7 +6232,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6232,7 +6263,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6261,7 +6292,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6290,7 +6321,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6319,7 +6350,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6469,7 +6500,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -6682,7 +6713,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -6970,7 +7001,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -7088,7 +7119,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -7672,9 +7703,7 @@
       <c r="I61" s="52"/>
       <c r="J61" s="32"/>
       <c r="K61" s="32"/>
-      <c r="L61" s="39" t="s">
-        <v>61</v>
-      </c>
+      <c r="L61" s="39"/>
       <c r="M61" s="32"/>
       <c r="N61" s="32"/>
       <c r="O61" s="32"/>
@@ -7697,9 +7726,7 @@
       <c r="I62" s="52"/>
       <c r="J62" s="32"/>
       <c r="K62" s="32"/>
-      <c r="L62" s="39" t="s">
-        <v>61</v>
-      </c>
+      <c r="L62" s="39"/>
       <c r="M62" s="32"/>
       <c r="N62" s="32"/>
       <c r="O62" s="32"/>
@@ -7722,9 +7749,7 @@
       <c r="I63" s="52"/>
       <c r="J63" s="32"/>
       <c r="K63" s="32"/>
-      <c r="L63" s="39" t="s">
-        <v>61</v>
-      </c>
+      <c r="L63" s="39"/>
       <c r="M63" s="32"/>
       <c r="N63" s="32"/>
       <c r="O63" s="32"/>
@@ -7747,9 +7772,7 @@
       <c r="I64" s="52"/>
       <c r="J64" s="32"/>
       <c r="K64" s="32"/>
-      <c r="L64" s="39" t="s">
-        <v>61</v>
-      </c>
+      <c r="L64" s="39"/>
       <c r="M64" s="32"/>
       <c r="N64" s="32"/>
       <c r="O64" s="32"/>
@@ -7772,9 +7795,7 @@
       <c r="I65" s="52"/>
       <c r="J65" s="32"/>
       <c r="K65" s="32"/>
-      <c r="L65" s="39" t="s">
-        <v>61</v>
-      </c>
+      <c r="L65" s="39"/>
       <c r="M65" s="32"/>
       <c r="N65" s="32"/>
       <c r="O65" s="32"/>
@@ -8035,6 +8056,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8046,13 +8074,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8096,43 +8117,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8177,58 +8198,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -8253,23 +8274,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8317,7 +8338,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8348,7 +8369,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8377,7 +8398,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8406,7 +8427,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8435,7 +8456,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8464,7 +8485,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8493,7 +8514,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8524,7 +8545,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8553,7 +8574,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8582,7 +8603,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8611,7 +8632,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10327,6 +10348,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10338,13 +10366,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10388,43 +10409,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10469,58 +10490,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="61" t="s">
         <v>1</v>
       </c>
@@ -10545,23 +10566,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="61" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10615,7 +10636,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10674,7 +10695,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10731,7 +10752,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10760,7 +10781,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10789,7 +10810,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10818,7 +10839,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10847,7 +10868,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10878,7 +10899,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10907,7 +10928,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10936,7 +10957,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10965,7 +10986,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12681,13 +12702,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12699,6 +12713,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12709,8 +12730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12742,43 +12763,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12823,58 +12844,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -12899,23 +12920,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12967,7 +12988,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13024,7 +13045,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13037,7 +13058,9 @@
       <c r="B8" s="54">
         <v>44770</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="54">
+        <v>44776</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>67</v>
       </c>
@@ -13075,7 +13098,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13088,7 +13111,9 @@
       <c r="B9" s="54">
         <v>44770</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="54">
+        <v>44776</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>67</v>
       </c>
@@ -13126,7 +13151,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13139,7 +13164,9 @@
       <c r="B10" s="54">
         <v>44770</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="54">
+        <v>44776</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>67</v>
       </c>
@@ -13179,7 +13206,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13192,7 +13219,9 @@
       <c r="B11" s="54">
         <v>44770</v>
       </c>
-      <c r="C11" s="54"/>
+      <c r="C11" s="54">
+        <v>44776</v>
+      </c>
       <c r="D11" s="37" t="s">
         <v>67</v>
       </c>
@@ -13232,7 +13261,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13261,7 +13290,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13292,7 +13321,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13321,7 +13350,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13350,7 +13379,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13379,7 +13408,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -15095,6 +15124,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15106,13 +15142,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15123,8 +15152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15156,43 +15185,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -15237,58 +15266,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -15313,23 +15342,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15379,7 +15408,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15434,7 +15463,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15447,7 +15476,9 @@
       <c r="B8" s="54">
         <v>44770</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="54">
+        <v>44776</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>65</v>
       </c>
@@ -15485,7 +15516,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15498,7 +15529,9 @@
       <c r="B9" s="54">
         <v>44770</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="54">
+        <v>44776</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>65</v>
       </c>
@@ -15538,7 +15571,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15567,7 +15600,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15596,7 +15629,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15625,7 +15658,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15656,7 +15689,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15685,7 +15718,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15714,7 +15747,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15743,7 +15776,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17459,6 +17492,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17470,13 +17510,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17487,8 +17520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17:R17"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17520,43 +17553,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17601,58 +17634,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -17677,23 +17710,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17743,7 +17776,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17800,7 +17833,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17857,7 +17890,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17914,7 +17947,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17927,7 +17960,9 @@
       <c r="B10" s="54">
         <v>44770</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="54">
+        <v>44776</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>44</v>
       </c>
@@ -17967,7 +18002,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17980,7 +18015,9 @@
       <c r="B11" s="54">
         <v>44770</v>
       </c>
-      <c r="C11" s="54"/>
+      <c r="C11" s="54">
+        <v>44776</v>
+      </c>
       <c r="D11" s="37" t="s">
         <v>44</v>
       </c>
@@ -17993,7 +18030,7 @@
       </c>
       <c r="H11" s="58"/>
       <c r="I11" s="51" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>104</v>
@@ -18022,7 +18059,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -18035,7 +18072,9 @@
       <c r="B12" s="54">
         <v>44770</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="54">
+        <v>44776</v>
+      </c>
       <c r="D12" s="37" t="s">
         <v>44</v>
       </c>
@@ -18075,7 +18114,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -18090,7 +18129,9 @@
       <c r="B13" s="54">
         <v>44770</v>
       </c>
-      <c r="C13" s="54"/>
+      <c r="C13" s="54">
+        <v>44776</v>
+      </c>
       <c r="D13" s="37" t="s">
         <v>44</v>
       </c>
@@ -18130,7 +18171,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -18143,7 +18184,9 @@
       <c r="B14" s="54">
         <v>44770</v>
       </c>
-      <c r="C14" s="54"/>
+      <c r="C14" s="54">
+        <v>44776</v>
+      </c>
       <c r="D14" s="37" t="s">
         <v>44</v>
       </c>
@@ -18183,7 +18226,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -18196,7 +18239,9 @@
       <c r="B15" s="54">
         <v>44770</v>
       </c>
-      <c r="C15" s="54"/>
+      <c r="C15" s="54">
+        <v>44776</v>
+      </c>
       <c r="D15" s="37" t="s">
         <v>44</v>
       </c>
@@ -18236,7 +18281,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -18249,7 +18294,9 @@
       <c r="B16" s="54">
         <v>44770</v>
       </c>
-      <c r="C16" s="54"/>
+      <c r="C16" s="54">
+        <v>44776</v>
+      </c>
       <c r="D16" s="37" t="s">
         <v>44</v>
       </c>
@@ -18289,7 +18336,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -18302,7 +18349,9 @@
       <c r="B17" s="54">
         <v>44770</v>
       </c>
-      <c r="C17" s="54"/>
+      <c r="C17" s="54">
+        <v>44776</v>
+      </c>
       <c r="D17" s="37" t="s">
         <v>44</v>
       </c>
@@ -20030,13 +20079,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -20048,6 +20090,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20091,43 +20140,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -20172,58 +20221,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -20248,23 +20297,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="75"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="67"/>
       <c r="P5" s="81"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="74"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -20290,7 +20339,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -20321,7 +20370,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -20350,7 +20399,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -20379,7 +20428,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -20408,7 +20457,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -20437,7 +20486,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -20466,7 +20515,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -20497,7 +20546,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -20526,7 +20575,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -20555,7 +20604,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -20584,7 +20633,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21815,6 +21864,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21826,13 +21882,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
